--- a/source_code/picPaths.xlsx
+++ b/source_code/picPaths.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,142 +41,142 @@
     <t>endImage</t>
   </si>
   <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\1start.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\1a.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\1b.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\2start.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\2a.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\2b.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\3start.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\3a.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\3b.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\4a.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\4b.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\5a.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\5b.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\6a.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\6b.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\4start.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\5start.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\6start.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\7start.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\7a.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\7b.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\8start.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\8a.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\8b.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\9start.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\9a.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\9b.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\10start.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\10a.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\10b.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\11start.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\11a.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\11b.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\12start.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\12a.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\12b.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\13start.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\13a.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\13b.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\14start.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\14a.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\14b.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\15start.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\15a.png</t>
-  </si>
-  <si>
-    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\UniformityIllusionPsychoPy\Pics\15b.png</t>
-  </si>
-  <si>
     <t>midImage</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\1start.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\1a.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\1b.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\2start.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\2a.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\2b.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\3start.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\3a.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\3b.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\4start.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\4a.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\4b.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\5start.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\5a.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\5b.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\6start.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\6a.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\6b.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\7start.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\7a.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\7b.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\8start.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\8a.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\8b.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\9start.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\9a.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\9b.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\10start.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\10a.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\10b.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\11start.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\11a.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\11b.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\12start.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\12a.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\12b.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\13start.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\13a.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\13b.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\14start.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\14a.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\14b.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\15start.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\15a.png</t>
+  </si>
+  <si>
+    <t>C:\Users\hesselmann\Desktop\PsychoPyUniformityIllusion\source_code\Pics\15b.png</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -524,13 +524,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -538,13 +538,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -552,13 +552,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -566,13 +566,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -580,13 +580,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -594,13 +594,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
@@ -608,13 +608,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -622,13 +622,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
@@ -636,13 +636,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -650,13 +650,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
@@ -664,13 +664,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -678,13 +678,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
@@ -692,200 +692,200 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
